--- a/medicine/Enfance/Vincent_de_Swarte/Vincent_de_Swarte.xlsx
+++ b/medicine/Enfance/Vincent_de_Swarte/Vincent_de_Swarte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent de Swarte, né le 15 juin 1963 à  Montauban (Tarn-et-Garonne) et mort le 24 avril 2006 à Paris 5e[1],[2], est un peintre et écrivain français, auteur de romans variés allant de livres pour la jeunesse (Le Carrousel des mers) aux polars (Pharricide).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent de Swarte, né le 15 juin 1963 à  Montauban (Tarn-et-Garonne) et mort le 24 avril 2006 à Paris 5e est un peintre et écrivain français, auteur de romans variés allant de livres pour la jeunesse (Le Carrousel des mers) aux polars (Pharricide).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi des études de sciences politiques à Bordeaux, il travaille plus d'une dizaine d'années dans la publicité avant de se consacrer à la peinture, réalisant de nombreuses et singulières compositions qu'il signe généralement de son seul prénom.
 En 1996, il publie un premier livre destiné à la jeunesse intitulé Le Carrousel des mers.
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Carrousel des mers, littérature jeunesse, Gallimard, 1996.
 Pharricide, roman, Calmann-Lévy, 1998.
@@ -562,7 +578,7 @@
 Elle est moi, roman, éditions Denoël, 2005.
 Une photo de toi, roman, éditions Thierry Magnier, 2005.
 Journal d'un père, autobiographie, éditions Ramsay, 2006.
-Pharanoïa, nouvelles, éditions Denoël, 2007[3].</t>
+Pharanoïa, nouvelles, éditions Denoël, 2007.</t>
         </is>
       </c>
     </row>
@@ -590,9 +606,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006, les éditions Thierry Magnier créent « Photo roman », une collection en hommage à Vincent de Swarte[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, les éditions Thierry Magnier créent « Photo roman », une collection en hommage à Vincent de Swarte.
 </t>
         </is>
       </c>
